--- a/NigeriaCaseStudy.xlsx
+++ b/NigeriaCaseStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CA276-5EFF-334A-85FC-D58F12270CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2139E-7A48-5A4B-9A77-0EB434244A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1600" windowWidth="26440" windowHeight="15440" xr2:uid="{E43C1B10-2724-3B48-B139-C51DD1AAAC6B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Nigeria</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Correlation Wheat Price/ CPI</t>
+  </si>
+  <si>
+    <t>Local Price</t>
+  </si>
+  <si>
+    <t>Local Price Chg</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1617,619 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>YoY Change in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Imports, CPI, Local Bread Price</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16659011373578306"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Local CPI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wheat!$BD$11:$BL$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wheat!$BD$17:$BL$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.4471987989904749E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8629155755371567E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1483129602247133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19446398881543647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14317390524878282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13681627675512309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16082524035909662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20302101259185523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1428727600125046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B288-9847-A1AD-60AE52EEF61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Imports</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wheat!$BD$11:$BL$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wheat!$BD$19:$BJ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0560680617858373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95403449210732583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96562807044708554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3146544863307248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86284256265610781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96878500219939578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.266567601987445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B288-9847-A1AD-60AE52EEF61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Local Wheat Price</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wheat!$BD$11:$BL$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wheat!$BE$21:$BL$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.6686481235705113E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6854839186765123E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2536022945766305E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2776361400890703E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.8662624554536311E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.368263716615997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15367956212747846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7360635662374158E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B288-9847-A1AD-60AE52EEF61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="169351615"/>
+        <c:axId val="169358767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="169351615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169358767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169358767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169351615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2167,6 +2785,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2200,6 +3334,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4FC8B7-77C0-1F4D-B7AE-79993B44E09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2507,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED4EB3-91BA-AA49-8F67-C4000039EA20}">
   <dimension ref="A3:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4416,6 +5588,9 @@
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
       <c r="BD20" s="8">
         <v>223.00200000000001</v>
       </c>
@@ -4446,6 +5621,9 @@
       <c r="BM20" s="8"/>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
       <c r="BE21">
         <f>(BE20/BD20)-1</f>
         <v>9.6686481235705113E-2</v>

--- a/NigeriaCaseStudy.xlsx
+++ b/NigeriaCaseStudy.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2139E-7A48-5A4B-9A77-0EB434244A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743A9DA-53B1-E845-A3E9-0E294B947486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1600" windowWidth="26440" windowHeight="15440" xr2:uid="{E43C1B10-2724-3B48-B139-C51DD1AAAC6B}"/>
+    <workbookView xWindow="1600" yWindow="1600" windowWidth="26440" windowHeight="15440" activeTab="2" xr2:uid="{E43C1B10-2724-3B48-B139-C51DD1AAAC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheat" sheetId="1" r:id="rId1"/>
-    <sheet name="Soy" sheetId="2" r:id="rId2"/>
-    <sheet name="Maize" sheetId="3" r:id="rId3"/>
+    <sheet name="Maize" sheetId="4" r:id="rId2"/>
+    <sheet name="Soy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED4EB3-91BA-AA49-8F67-C4000039EA20}">
   <dimension ref="A3:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -5739,7 +5739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4408EE9A-C829-174F-85B0-824797FC1D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DEFA28-8DA5-DF42-A7D0-874DF0EF4934}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5751,10 +5751,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DADE3-2308-344D-BE23-998EA5C9FD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4408EE9A-C829-174F-85B0-824797FC1D8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/NigeriaCaseStudy.xlsx
+++ b/NigeriaCaseStudy.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743A9DA-53B1-E845-A3E9-0E294B947486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997B661F-E8D6-0F4E-A98C-DB6904A9DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1600" windowWidth="26440" windowHeight="15440" activeTab="2" xr2:uid="{E43C1B10-2724-3B48-B139-C51DD1AAAC6B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{E43C1B10-2724-3B48-B139-C51DD1AAAC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheat" sheetId="1" r:id="rId1"/>
     <sheet name="Maize" sheetId="4" r:id="rId2"/>
     <sheet name="Soy" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -185,8 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -312,194 +311,77 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Wheat!$C$11:$BL$11</c:f>
+              <c:f>Wheat!$AP$11:$BL$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1961</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1962</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1963</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1964</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1965</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1966</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1967</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1968</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1969</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1970</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1971</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1972</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1973</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1974</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1975</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1976</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1977</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1978</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1979</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1980</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1981</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1982</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
@@ -507,186 +389,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wheat!$C$19:$BJ$19</c:f>
+              <c:f>Wheat!$AP$19:$BJ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.50596903537457427</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.64</c:v>
+                  <c:v>-1.3293640424776543E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8371212121212122</c:v>
+                  <c:v>9.4803670897634973E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74226804123711343</c:v>
+                  <c:v>-7.5417490498736584E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5027777777777778</c:v>
+                  <c:v>0.17679161028416779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2678188539741222</c:v>
+                  <c:v>0.42382463116345415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68873063369327281</c:v>
+                  <c:v>-0.12670933159034026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86822437582128775</c:v>
+                  <c:v>-7.3283337412661798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6596225701177694</c:v>
+                  <c:v>2.4405683194473449E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4746960620586274</c:v>
+                  <c:v>0.23508712228097006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3654954373461239</c:v>
+                  <c:v>4.4231810748707856E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83977741044336762</c:v>
+                  <c:v>1.7072097940990405E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3342310155381036</c:v>
+                  <c:v>6.8040228048387164E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.80400805349460536</c:v>
+                  <c:v>7.1722862787378494E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2797633448435128</c:v>
+                  <c:v>5.6068061785837342E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7999430407872157</c:v>
+                  <c:v>-4.5965507892674173E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0871970024538522</c:v>
+                  <c:v>-3.437192955291446E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1026183725190073</c:v>
+                  <c:v>0.31465448633072479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91579137808029332</c:v>
+                  <c:v>-0.13715743734389219</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3667210870154043</c:v>
+                  <c:v>-3.1214997800604216E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0145054545454546</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.109362734731477</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66675525040387718</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2710241652058349</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3660821344354235</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.66395625005232917</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.12659020645098917</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3697038119272147</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.96969696969696972</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.2717652173913043</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8467450240336949</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.60014610787809408</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.90126643387503291</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3136841551800911</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.3368045827496498</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3323412568464506</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0350636828840267</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5059690353745743</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.98670635957522346</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.094803670897635</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.92458250950126342</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.1767916102841678</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.4238246311634541</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.87329066840965974</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9267166625873382</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0244056831944734</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.2350871222809701</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0442318107487079</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0170720979409904</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0068040228048387</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.0717228627873785</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0560680617858373</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.95403449210732583</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.96562807044708554</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.3146544863307248</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.86284256265610781</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.96878500219939578</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.266567601987445</c:v>
+                  <c:v>0.266567601987445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,194 +494,77 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Wheat!$C$11:$BL$11</c:f>
+              <c:f>Wheat!$AP$11:$BL$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1961</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1962</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1963</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1964</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1965</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1966</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1967</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1968</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1969</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1970</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1971</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1972</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1973</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1974</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1975</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1976</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1977</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1978</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1979</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1980</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1981</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1982</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
@@ -921,74 +572,74 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wheat!$C$17:$BL$17</c:f>
+              <c:f>Wheat!$AP$17:$BL$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="40" formatCode="0.00">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
                   <c:v>0.28581915304332473</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>0.13897908333937048</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>6.4009786691705983E-2</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>0.14454032764243729</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>0.22777019371524276</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>5.5839826844798379E-2</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>2.1309257306108886E-2</c:v>
                 </c:pt>
-                <c:pt idx="47" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>0.15921973210097806</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>0.14699003627631435</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>0.14856412413501885</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>0.10195686147862815</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>0.11181619087823824</c:v>
                 </c:pt>
-                <c:pt idx="52" formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>9.5076422085303314E-2</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>9.4471987989904749E-2</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>9.8629155755371567E-2</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>0.1483129602247133</c:v>
                 </c:pt>
-                <c:pt idx="56" formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>0.19446398881543647</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>0.14317390524878282</c:v>
                 </c:pt>
-                <c:pt idx="58" formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>0.13681627675512309</c:v>
                 </c:pt>
-                <c:pt idx="59" formatCode="0.00">
+                <c:pt idx="20">
                   <c:v>0.16082524035909662</c:v>
                 </c:pt>
-                <c:pt idx="60" formatCode="0.00">
+                <c:pt idx="21">
                   <c:v>0.20302101259185523</c:v>
                 </c:pt>
-                <c:pt idx="61" formatCode="0.00">
+                <c:pt idx="22">
                   <c:v>0.1428727600125046</c:v>
                 </c:pt>
               </c:numCache>
@@ -1029,194 +680,77 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Wheat!$C$11:$BL$11</c:f>
+              <c:f>Wheat!$AP$11:$BL$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1961</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1962</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1963</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1964</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1965</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1966</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1967</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1968</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1969</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1970</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1971</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1972</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1973</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1974</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1975</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1976</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1977</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1978</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1979</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1980</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1981</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1982</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
@@ -1224,185 +758,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wheat!$C$13:$BJ$13</c:f>
+              <c:f>Wheat!$AP$13:$BJ$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.27722772277227725</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.30136986301369861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8823529411764719E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4074074074074181E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8965517241379226E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4516129032258007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.575757575757569E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38028169014084512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50943396226415105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38051250000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49401037658116098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.39393939393939392</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1412500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34282584884994527</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="17">
+                  <c:v>0.1166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.10447761194029848</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0000000000000044E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.7619047619047672E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.0000000000000044E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2631578947368363E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.11111111111111116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0909090909090828E-2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3333333333333259E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.8461538461538547E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1851851851851851</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.16814159292035402</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.3030303030302983E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.64028776978417268</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.18500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.9754601226993849E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.23863636363636354</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.7981651376146877E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.4042553191489362</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.48484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.0612244897959107E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.27722772277227725</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.30136986301369861</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.8823529411764719E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.4074074074074181E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.8965517241379226E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.4516129032258007E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.575757575757569E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.38028169014084512</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.20454545454545459</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.50943396226415105</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.38051250000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.49401037658116098</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.39393939393939392</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.1412500000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.34282584884994527</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.1166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.10447761194029848</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
                   <c:v>-8.333333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1863,25 +1283,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0560680617858373</c:v>
+                  <c:v>5.6068061785837342E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95403449210732583</c:v>
+                  <c:v>-4.5965507892674173E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96562807044708554</c:v>
+                  <c:v>-3.437192955291446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3146544863307248</c:v>
+                  <c:v>0.31465448633072479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86284256265610781</c:v>
+                  <c:v>-0.13715743734389219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96878500219939578</c:v>
+                  <c:v>-3.1214997800604216E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.266567601987445</c:v>
+                  <c:v>0.266567601987445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1317,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Local Wheat Price</c:v>
+            <c:v>Local Bread Price</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3679,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED4EB3-91BA-AA49-8F67-C4000039EA20}">
   <dimension ref="A3:BM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4134,7 +3554,7 @@
       <c r="BK11" s="3">
         <v>2021</v>
       </c>
-      <c r="BL11" s="6">
+      <c r="BL11" s="2">
         <v>2022</v>
       </c>
     </row>
@@ -5351,274 +4771,274 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <f>(D18/C18)/1</f>
-        <v>2.64</v>
+        <f>(D18/C18)-1</f>
+        <v>1.6400000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:BJ19" si="3">(E18/D18)/1</f>
-        <v>1.8371212121212122</v>
+        <f t="shared" ref="E19:BJ19" si="3">(E18/D18)-1</f>
+        <v>0.83712121212121215</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>0.74226804123711343</v>
+        <v>-0.25773195876288657</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>1.5027777777777778</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>3.2678188539741222</v>
+        <v>2.2678188539741222</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.68873063369327281</v>
+        <v>-0.31126936630672719</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.86822437582128775</v>
+        <v>-0.13177562417871225</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>1.6596225701177694</v>
+        <v>0.65962257011776937</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>1.4746960620586274</v>
+        <v>0.47469606205862735</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>1.3654954373461239</v>
+        <v>0.36549543734612389</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>0.83977741044336762</v>
+        <v>-0.16022258955663238</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>1.3342310155381036</v>
+        <v>0.33423101553810364</v>
       </c>
       <c r="P19">
         <f t="shared" si="3"/>
-        <v>0.80400805349460536</v>
+        <v>-0.19599194650539464</v>
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>1.2797633448435128</v>
+        <v>0.27976334484351284</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>1.7999430407872157</v>
+        <v>0.79994304078721568</v>
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>1.0871970024538522</v>
+        <v>8.7197002453852201E-2</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
-        <v>1.1026183725190073</v>
+        <v>0.10261837251900729</v>
       </c>
       <c r="U19">
         <f t="shared" si="3"/>
-        <v>0.91579137808029332</v>
+        <v>-8.4208621919706683E-2</v>
       </c>
       <c r="V19">
         <f t="shared" si="3"/>
-        <v>1.3667210870154043</v>
+        <v>0.36672108701540429</v>
       </c>
       <c r="W19">
         <f t="shared" si="3"/>
-        <v>1.0145054545454546</v>
+        <v>1.4505454545454599E-2</v>
       </c>
       <c r="X19">
         <f t="shared" si="3"/>
-        <v>1.109362734731477</v>
+        <v>0.10936273473147695</v>
       </c>
       <c r="Y19">
         <f t="shared" si="3"/>
-        <v>0.66675525040387718</v>
+        <v>-0.33324474959612282</v>
       </c>
       <c r="Z19">
         <f t="shared" si="3"/>
-        <v>1.2710241652058349</v>
+        <v>0.27102416520583494</v>
       </c>
       <c r="AA19">
         <f t="shared" si="3"/>
-        <v>1.3660821344354235</v>
+        <v>0.36608213443542348</v>
       </c>
       <c r="AB19">
         <f t="shared" si="3"/>
-        <v>0.66395625005232917</v>
+        <v>-0.33604374994767083</v>
       </c>
       <c r="AC19">
         <f t="shared" si="3"/>
-        <v>0.12659020645098917</v>
+        <v>-0.87340979354901083</v>
       </c>
       <c r="AD19">
         <f t="shared" si="3"/>
-        <v>1.3697038119272147</v>
+        <v>0.36970381192721469</v>
       </c>
       <c r="AE19">
         <f t="shared" si="3"/>
-        <v>0.96969696969696972</v>
+        <v>-3.0303030303030276E-2</v>
       </c>
       <c r="AF19">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
+        <v>-0.8125</v>
       </c>
       <c r="AG19">
         <f t="shared" si="3"/>
-        <v>7.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH19">
         <f t="shared" si="3"/>
-        <v>1.2717652173913043</v>
+        <v>0.27176521739130433</v>
       </c>
       <c r="AI19">
         <f t="shared" si="3"/>
-        <v>3.8467450240336949</v>
+        <v>2.8467450240336949</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="3"/>
-        <v>0.60014610787809408</v>
+        <v>-0.39985389212190592</v>
       </c>
       <c r="AK19">
         <f t="shared" si="3"/>
-        <v>0.90126643387503291</v>
+        <v>-9.8733566124967087E-2</v>
       </c>
       <c r="AL19">
         <f t="shared" si="3"/>
-        <v>1.3136841551800911</v>
+        <v>0.31368415518009107</v>
       </c>
       <c r="AM19">
         <f t="shared" si="3"/>
-        <v>1.3368045827496498</v>
+        <v>0.33680458274964975</v>
       </c>
       <c r="AN19">
         <f t="shared" si="3"/>
-        <v>1.3323412568464506</v>
+        <v>0.33234125684645055</v>
       </c>
       <c r="AO19">
         <f t="shared" si="3"/>
-        <v>1.0350636828840267</v>
+        <v>3.5063682884026726E-2</v>
       </c>
       <c r="AP19">
         <f t="shared" si="3"/>
-        <v>1.5059690353745743</v>
+        <v>0.50596903537457427</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="3"/>
-        <v>0.98670635957522346</v>
+        <v>-1.3293640424776543E-2</v>
       </c>
       <c r="AR19">
         <f t="shared" si="3"/>
-        <v>1.094803670897635</v>
+        <v>9.4803670897634973E-2</v>
       </c>
       <c r="AS19">
         <f t="shared" si="3"/>
-        <v>0.92458250950126342</v>
+        <v>-7.5417490498736584E-2</v>
       </c>
       <c r="AT19">
         <f t="shared" si="3"/>
-        <v>1.1767916102841678</v>
+        <v>0.17679161028416779</v>
       </c>
       <c r="AU19">
         <f t="shared" si="3"/>
-        <v>1.4238246311634541</v>
+        <v>0.42382463116345415</v>
       </c>
       <c r="AV19">
         <f t="shared" si="3"/>
-        <v>0.87329066840965974</v>
+        <v>-0.12670933159034026</v>
       </c>
       <c r="AW19">
         <f t="shared" si="3"/>
-        <v>0.9267166625873382</v>
+        <v>-7.3283337412661798E-2</v>
       </c>
       <c r="AX19">
         <f t="shared" si="3"/>
-        <v>1.0244056831944734</v>
+        <v>2.4405683194473449E-2</v>
       </c>
       <c r="AY19">
         <f t="shared" si="3"/>
-        <v>1.2350871222809701</v>
+        <v>0.23508712228097006</v>
       </c>
       <c r="AZ19">
         <f t="shared" si="3"/>
-        <v>1.0442318107487079</v>
+        <v>4.4231810748707856E-2</v>
       </c>
       <c r="BA19">
         <f t="shared" si="3"/>
-        <v>1.0170720979409904</v>
+        <v>1.7072097940990405E-2</v>
       </c>
       <c r="BB19">
         <f t="shared" si="3"/>
-        <v>1.0068040228048387</v>
+        <v>6.8040228048387164E-3</v>
       </c>
       <c r="BC19">
         <f t="shared" si="3"/>
-        <v>1.0717228627873785</v>
+        <v>7.1722862787378494E-2</v>
       </c>
       <c r="BD19">
         <f t="shared" si="3"/>
-        <v>1.0560680617858373</v>
+        <v>5.6068061785837342E-2</v>
       </c>
       <c r="BE19">
         <f t="shared" si="3"/>
-        <v>0.95403449210732583</v>
+        <v>-4.5965507892674173E-2</v>
       </c>
       <c r="BF19">
         <f t="shared" si="3"/>
-        <v>0.96562807044708554</v>
+        <v>-3.437192955291446E-2</v>
       </c>
       <c r="BG19">
         <f t="shared" si="3"/>
-        <v>1.3146544863307248</v>
+        <v>0.31465448633072479</v>
       </c>
       <c r="BH19">
         <f t="shared" si="3"/>
-        <v>0.86284256265610781</v>
+        <v>-0.13715743734389219</v>
       </c>
       <c r="BI19">
         <f t="shared" si="3"/>
-        <v>0.96878500219939578</v>
+        <v>-3.1214997800604216E-2</v>
       </c>
       <c r="BJ19">
         <f t="shared" si="3"/>
-        <v>1.266567601987445</v>
+        <v>0.266567601987445</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="BD20" s="8">
+      <c r="BD20" s="7">
         <v>223.00200000000001</v>
       </c>
-      <c r="BE20" s="8">
+      <c r="BE20" s="7">
         <v>244.56327868852472</v>
       </c>
-      <c r="BF20" s="8">
+      <c r="BF20" s="7">
         <v>243.90650793650789</v>
       </c>
-      <c r="BG20" s="8">
+      <c r="BG20" s="7">
         <v>254.28132075471694</v>
       </c>
-      <c r="BH20" s="8">
+      <c r="BH20" s="7">
         <v>267.70136363636368</v>
       </c>
-      <c r="BI20" s="8">
+      <c r="BI20" s="7">
         <v>265.86325581395357</v>
       </c>
-      <c r="BJ20" s="8">
+      <c r="BJ20" s="7">
         <v>246.27375000000006</v>
       </c>
-      <c r="BK20" s="8">
+      <c r="BK20" s="7">
         <v>208.42650793650796</v>
       </c>
-      <c r="BL20" s="8">
+      <c r="BL20" s="7">
         <v>222.46625</v>
       </c>
-      <c r="BM20" s="8"/>
+      <c r="BM20" s="7"/>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -5658,16 +5078,16 @@
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -5675,7 +5095,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f>CORREL(D13:BJ13,D15:BJ15)</f>
         <v>0.99999998954575997</v>
       </c>
@@ -5686,7 +5106,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f>CORREL(AQ15:BJ15,AQ17:BJ17)</f>
         <v>7.2555327556505789E-2</v>
       </c>
@@ -5697,9 +5117,9 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f>CORREL(D15:BJ15,D19:BJ19)</f>
-        <v>1.7480384352670828E-2</v>
+        <v>1.7480384352670832E-2</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
@@ -5708,9 +5128,9 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f>CORREL(AQ17:BJ17,AQ19:BJ19)</f>
-        <v>0.51529356569434026</v>
+        <v>0.51529356569434004</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.2">
@@ -5754,7 +5174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4408EE9A-C829-174F-85B0-824797FC1D8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
